--- a/final/1/status.xlsx
+++ b/final/1/status.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\機構輔導科\3.老人福利機構數據及統計表區\機構統計表\104年\10404\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\R\R\final\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12980"/>
   </bookViews>
   <sheets>
     <sheet name="供需統計" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="pp">機構概況表!$A$2:$AU$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">機構概況表!$A$2:$AV$30</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <webPublishObjects count="1">
     <webPublishObject id="22496" divId="縣市已登記面積筆數_22496" sourceObject="pp" destinationFile="D:\90bbs\bbs01.htm"/>
   </webPublishObjects>
@@ -585,7 +585,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="11">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -911,7 +911,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,6 +921,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,7 +1448,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1749,9 +1761,6 @@
     <xf numFmtId="180" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="183" fontId="4" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1814,6 +1823,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1832,9 +1865,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1865,33 +1895,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1946,6 +1955,89 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="14" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="14" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="33" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="14" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="14" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1953,7 +2045,18 @@
     <cellStyle name="一般_92.10外籍與大陸配偶證件別及國籍別" xfId="2"/>
     <cellStyle name="千分位" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2621,30 +2724,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="44" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" customWidth="1"/>
-    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" hidden="1">
@@ -2655,102 +2758,102 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="25.5">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:16" ht="25">
+      <c r="A2" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="34"/>
     </row>
-    <row r="3" spans="1:16" ht="35.450000000000003" customHeight="1">
-      <c r="A3" s="126" t="s">
+    <row r="3" spans="1:16" ht="35.5" customHeight="1">
+      <c r="A3" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="124" t="str">
+      <c r="B3" s="123" t="str">
         <f>A1</f>
         <v>104年4月底</v>
       </c>
-      <c r="C3" s="124" t="str">
+      <c r="C3" s="123" t="str">
         <f>A1</f>
         <v>104年4月底</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="130" t="s">
+      <c r="E3" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="132" t="s">
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="133"/>
-      <c r="L3" s="130" t="s">
+      <c r="K3" s="132"/>
+      <c r="L3" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="134"/>
-      <c r="N3" s="126" t="s">
+      <c r="M3" s="133"/>
+      <c r="N3" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="126" t="s">
+      <c r="O3" s="125" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
-      <c r="A4" s="126"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131" t="str">
+    <row r="4" spans="1:16" ht="17">
+      <c r="A4" s="125"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130" t="str">
         <f>B1</f>
         <v>(104.4.30)</v>
       </c>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="132" t="s">
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="136"/>
-      <c r="L4" s="130" t="str">
+      <c r="K4" s="135"/>
+      <c r="L4" s="129" t="str">
         <f>B1</f>
         <v>(104.4.30)</v>
       </c>
-      <c r="M4" s="137"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
       <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A5" s="126"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="97" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
       <c r="F5" s="52" t="s">
         <v>10</v>
       </c>
@@ -2775,11 +2878,11 @@
       <c r="M5" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="135"/>
-      <c r="O5" s="126"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="125"/>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5">
+    <row r="6" spans="1:16" ht="17">
       <c r="A6" s="39" t="s">
         <v>15</v>
       </c>
@@ -2839,324 +2942,324 @@
       </c>
       <c r="P6" s="36"/>
     </row>
-    <row r="7" spans="1:16" ht="16.5">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:16" s="211" customFormat="1" ht="17">
+      <c r="A7" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="200">
         <v>3964888</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="200">
         <v>411600</v>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="201">
         <f t="shared" ref="D7:D28" si="1">C7*0.164*0.2</f>
         <v>13500.480000000003</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="202">
         <f t="shared" ref="E7:E28" si="2">C7/B7</f>
         <v>0.10381125519812918</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F7" s="203">
         <v>209</v>
       </c>
-      <c r="G7" s="108">
+      <c r="G7" s="204">
         <v>10875</v>
       </c>
-      <c r="H7" s="109">
+      <c r="H7" s="205">
         <v>8229</v>
       </c>
-      <c r="I7" s="110">
+      <c r="I7" s="206">
         <f>H7/G7</f>
         <v>0.75668965517241382</v>
       </c>
-      <c r="J7" s="111">
+      <c r="J7" s="207">
         <v>76</v>
       </c>
-      <c r="K7" s="111">
+      <c r="K7" s="207">
         <v>5695</v>
       </c>
-      <c r="L7" s="111">
+      <c r="L7" s="207">
         <v>2</v>
       </c>
-      <c r="M7" s="112">
+      <c r="M7" s="208">
         <v>909</v>
       </c>
-      <c r="N7" s="101">
+      <c r="N7" s="201">
         <f t="shared" ref="N7:N27" si="3">G7+K7+M7</f>
         <v>17479</v>
       </c>
-      <c r="O7" s="106">
+      <c r="O7" s="209">
         <f t="shared" ref="O7:O28" si="4">N7-D7</f>
         <v>3978.5199999999968</v>
       </c>
-      <c r="P7" s="37"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5">
-      <c r="A8" s="38" t="s">
+      <c r="P7" s="210"/>
+    </row>
+    <row r="8" spans="1:16" s="194" customFormat="1" ht="17">
+      <c r="A8" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="183">
         <v>2705949</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="183">
         <v>387834</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="184">
         <f t="shared" si="1"/>
         <v>12720.955200000002</v>
       </c>
-      <c r="E8" s="102">
+      <c r="E8" s="185">
         <f t="shared" si="2"/>
         <v>0.14332642632954279</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="186">
         <v>111</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="187">
         <v>5688</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="188">
         <v>4999</v>
       </c>
-      <c r="I8" s="110">
+      <c r="I8" s="189">
         <f t="shared" ref="I8:I28" si="5">H8/G8</f>
         <v>0.87886779184247543</v>
       </c>
-      <c r="J8" s="113">
+      <c r="J8" s="195">
         <v>21</v>
       </c>
-      <c r="K8" s="114">
+      <c r="K8" s="196">
         <v>1286</v>
       </c>
-      <c r="L8" s="115"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="101">
+      <c r="L8" s="197"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="184">
         <f t="shared" si="3"/>
         <v>6974</v>
       </c>
-      <c r="O8" s="106">
+      <c r="O8" s="192">
         <f t="shared" si="4"/>
         <v>-5746.9552000000022</v>
       </c>
-      <c r="P8" s="37"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5">
-      <c r="A9" s="38" t="s">
+      <c r="P8" s="193"/>
+    </row>
+    <row r="9" spans="1:16" s="194" customFormat="1" ht="17">
+      <c r="A9" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="183">
         <v>2077929</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="183">
         <v>195881</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="184">
         <f t="shared" si="1"/>
         <v>6424.8968000000004</v>
       </c>
-      <c r="E9" s="102">
+      <c r="E9" s="185">
         <f t="shared" si="2"/>
         <v>9.4267417221666386E-2</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="186">
         <v>59</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="187">
         <v>3378</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="188">
         <v>2504</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="189">
         <f t="shared" si="5"/>
         <v>0.74126702190645355</v>
       </c>
-      <c r="J9" s="113">
+      <c r="J9" s="195">
         <v>60</v>
       </c>
-      <c r="K9" s="114">
+      <c r="K9" s="196">
         <v>5313</v>
       </c>
-      <c r="L9" s="115">
+      <c r="L9" s="197">
         <v>2</v>
       </c>
-      <c r="M9" s="112">
+      <c r="M9" s="191">
         <v>1448</v>
       </c>
-      <c r="N9" s="101">
+      <c r="N9" s="184">
         <f t="shared" si="3"/>
         <v>10139</v>
       </c>
-      <c r="O9" s="106">
+      <c r="O9" s="192">
         <f t="shared" si="4"/>
         <v>3714.1031999999996</v>
       </c>
-      <c r="P9" s="37"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5">
-      <c r="A10" s="38" t="s">
+      <c r="P9" s="193"/>
+    </row>
+    <row r="10" spans="1:16" s="194" customFormat="1" ht="17">
+      <c r="A10" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="100">
+      <c r="B10" s="183">
         <v>2727460</v>
       </c>
-      <c r="C10" s="100">
+      <c r="C10" s="183">
         <v>272356</v>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="184">
         <f t="shared" si="1"/>
         <v>8933.2768000000015</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="185">
         <f t="shared" si="2"/>
         <v>9.9857009818659123E-2</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="186">
         <v>65</v>
       </c>
-      <c r="G10" s="108">
+      <c r="G10" s="187">
         <v>4176</v>
       </c>
-      <c r="H10" s="109">
+      <c r="H10" s="188">
         <v>3370</v>
       </c>
-      <c r="I10" s="110">
+      <c r="I10" s="189">
         <f t="shared" si="5"/>
         <v>0.80699233716475094</v>
       </c>
-      <c r="J10" s="113">
+      <c r="J10" s="195">
         <v>68</v>
       </c>
-      <c r="K10" s="114">
+      <c r="K10" s="196">
         <v>4472</v>
       </c>
-      <c r="L10" s="115"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="101">
+      <c r="L10" s="197"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="184">
         <f t="shared" si="3"/>
         <v>8648</v>
       </c>
-      <c r="O10" s="106">
+      <c r="O10" s="192">
         <f t="shared" si="4"/>
         <v>-285.27680000000146</v>
       </c>
-      <c r="P10" s="37"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5">
-      <c r="A11" s="38" t="s">
+      <c r="P10" s="193"/>
+    </row>
+    <row r="11" spans="1:16" s="194" customFormat="1" ht="17">
+      <c r="A11" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="100">
+      <c r="B11" s="183">
         <v>1885287</v>
       </c>
-      <c r="C11" s="100">
+      <c r="C11" s="183">
         <v>241377</v>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="184">
         <f t="shared" si="1"/>
         <v>7917.1656000000003</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="185">
         <f t="shared" si="2"/>
         <v>0.12803196542489287</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="186">
         <v>110</v>
       </c>
-      <c r="G11" s="108">
+      <c r="G11" s="187">
         <v>5584</v>
       </c>
-      <c r="H11" s="109">
+      <c r="H11" s="188">
         <v>4393</v>
       </c>
-      <c r="I11" s="110">
+      <c r="I11" s="189">
         <f t="shared" si="5"/>
         <v>0.78671203438395421</v>
       </c>
-      <c r="J11" s="113">
+      <c r="J11" s="195">
         <v>66</v>
       </c>
-      <c r="K11" s="116">
+      <c r="K11" s="198">
         <v>4015</v>
       </c>
-      <c r="L11" s="111">
+      <c r="L11" s="190">
         <v>3</v>
       </c>
-      <c r="M11" s="112">
+      <c r="M11" s="191">
         <v>1059</v>
       </c>
-      <c r="N11" s="101">
+      <c r="N11" s="184">
         <f t="shared" si="3"/>
         <v>10658</v>
       </c>
-      <c r="O11" s="106">
+      <c r="O11" s="192">
         <f t="shared" si="4"/>
         <v>2740.8343999999997</v>
       </c>
-      <c r="P11" s="37"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5">
-      <c r="A12" s="38" t="s">
+      <c r="P11" s="193"/>
+    </row>
+    <row r="12" spans="1:16" s="194" customFormat="1" ht="17">
+      <c r="A12" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="183">
         <v>2778914</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="183">
         <v>338982</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="184">
         <f t="shared" si="1"/>
         <v>11118.609600000002</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="185">
         <f t="shared" si="2"/>
         <v>0.12198362381851327</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="186">
         <v>143</v>
       </c>
-      <c r="G12" s="108">
+      <c r="G12" s="187">
         <v>7312</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="188">
         <v>5607</v>
       </c>
-      <c r="I12" s="110">
+      <c r="I12" s="189">
         <f t="shared" si="5"/>
         <v>0.76682166301969368</v>
       </c>
-      <c r="J12" s="113">
+      <c r="J12" s="195">
         <v>8</v>
       </c>
-      <c r="K12" s="114">
+      <c r="K12" s="196">
         <v>510</v>
       </c>
-      <c r="L12" s="115">
+      <c r="L12" s="197">
         <v>2</v>
       </c>
-      <c r="M12" s="112">
+      <c r="M12" s="191">
         <v>1340</v>
       </c>
-      <c r="N12" s="101">
+      <c r="N12" s="184">
         <f t="shared" si="3"/>
         <v>9162</v>
       </c>
-      <c r="O12" s="106">
+      <c r="O12" s="192">
         <f t="shared" si="4"/>
         <v>-1956.6096000000016</v>
       </c>
-      <c r="P12" s="37"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.5">
+      <c r="P12" s="193"/>
+    </row>
+    <row r="13" spans="1:16" ht="17">
       <c r="A13" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="117">
+      <c r="B13" s="116">
         <v>458273</v>
       </c>
-      <c r="C13" s="117">
+      <c r="C13" s="116">
         <v>64236</v>
       </c>
       <c r="D13" s="101">
@@ -3198,14 +3301,14 @@
       </c>
       <c r="P13" s="37"/>
     </row>
-    <row r="14" spans="1:16" ht="16.5">
+    <row r="14" spans="1:16" ht="17">
       <c r="A14" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="117">
+      <c r="B14" s="116">
         <v>538153</v>
       </c>
-      <c r="C14" s="117">
+      <c r="C14" s="116">
         <v>60975</v>
       </c>
       <c r="D14" s="101">
@@ -3247,14 +3350,14 @@
       </c>
       <c r="P14" s="37"/>
     </row>
-    <row r="15" spans="1:16" ht="16.5">
+    <row r="15" spans="1:16" ht="17">
       <c r="A15" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="117">
+      <c r="B15" s="116">
         <v>566199</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="116">
         <v>79414</v>
       </c>
       <c r="D15" s="101">
@@ -3296,14 +3399,14 @@
       </c>
       <c r="P15" s="37"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5">
+    <row r="16" spans="1:16" ht="17">
       <c r="A16" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="117">
+      <c r="B16" s="116">
         <v>1289792</v>
       </c>
-      <c r="C16" s="117">
+      <c r="C16" s="116">
         <v>172752</v>
       </c>
       <c r="D16" s="101">
@@ -3349,14 +3452,14 @@
       </c>
       <c r="P16" s="37"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5">
+    <row r="17" spans="1:16" ht="17">
       <c r="A17" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="117">
+      <c r="B17" s="116">
         <v>512460</v>
       </c>
-      <c r="C17" s="117">
+      <c r="C17" s="116">
         <v>76437</v>
       </c>
       <c r="D17" s="101">
@@ -3398,14 +3501,14 @@
       </c>
       <c r="P17" s="37"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5">
+    <row r="18" spans="1:16" ht="17">
       <c r="A18" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="117">
+      <c r="B18" s="116">
         <v>702881</v>
       </c>
-      <c r="C18" s="117">
+      <c r="C18" s="116">
         <v>114472</v>
       </c>
       <c r="D18" s="101">
@@ -3451,14 +3554,14 @@
       </c>
       <c r="P18" s="37"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5">
+    <row r="19" spans="1:16" ht="17">
       <c r="A19" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="117">
+      <c r="B19" s="116">
         <v>522587</v>
       </c>
-      <c r="C19" s="117">
+      <c r="C19" s="116">
         <v>89016</v>
       </c>
       <c r="D19" s="101">
@@ -3500,14 +3603,14 @@
       </c>
       <c r="P19" s="37"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5">
+    <row r="20" spans="1:16" ht="17">
       <c r="A20" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="117">
+      <c r="B20" s="116">
         <v>845079</v>
       </c>
-      <c r="C20" s="117">
+      <c r="C20" s="116">
         <v>119567</v>
       </c>
       <c r="D20" s="101">
@@ -3553,14 +3656,14 @@
       </c>
       <c r="P20" s="37"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5">
+    <row r="21" spans="1:16" ht="17">
       <c r="A21" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="117">
+      <c r="B21" s="116">
         <v>223559</v>
       </c>
-      <c r="C21" s="117">
+      <c r="C21" s="116">
         <v>31731</v>
       </c>
       <c r="D21" s="101">
@@ -3593,7 +3696,7 @@
       <c r="L21" s="111">
         <v>1</v>
       </c>
-      <c r="M21" s="118">
+      <c r="M21" s="117">
         <v>448</v>
       </c>
       <c r="N21" s="101">
@@ -3606,14 +3709,14 @@
       </c>
       <c r="P21" s="37"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5">
+    <row r="22" spans="1:16" ht="17">
       <c r="A22" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="117">
+      <c r="B22" s="116">
         <v>332674</v>
       </c>
-      <c r="C22" s="117">
+      <c r="C22" s="116">
         <v>45842</v>
       </c>
       <c r="D22" s="101">
@@ -3659,14 +3762,14 @@
       </c>
       <c r="P22" s="37"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5">
+    <row r="23" spans="1:16" ht="17">
       <c r="A23" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="117">
+      <c r="B23" s="116">
         <v>101842</v>
       </c>
-      <c r="C23" s="117">
+      <c r="C23" s="116">
         <v>14817</v>
       </c>
       <c r="D23" s="101">
@@ -3697,7 +3800,7 @@
         <v>139</v>
       </c>
       <c r="L23" s="115"/>
-      <c r="M23" s="119"/>
+      <c r="M23" s="118"/>
       <c r="N23" s="101">
         <f t="shared" si="3"/>
         <v>294</v>
@@ -3708,14 +3811,14 @@
       </c>
       <c r="P23" s="37"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5">
+    <row r="24" spans="1:16" ht="17">
       <c r="A24" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="117">
+      <c r="B24" s="116">
         <v>372985</v>
       </c>
-      <c r="C24" s="117">
+      <c r="C24" s="116">
         <v>47791</v>
       </c>
       <c r="D24" s="101">
@@ -3746,7 +3849,7 @@
         <v>505</v>
       </c>
       <c r="L24" s="115"/>
-      <c r="M24" s="119"/>
+      <c r="M24" s="118"/>
       <c r="N24" s="101">
         <f t="shared" si="3"/>
         <v>2397</v>
@@ -3757,14 +3860,14 @@
       </c>
       <c r="P24" s="37"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5">
+    <row r="25" spans="1:16" ht="17">
       <c r="A25" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="117">
+      <c r="B25" s="116">
         <v>432559</v>
       </c>
-      <c r="C25" s="117">
+      <c r="C25" s="116">
         <v>44447</v>
       </c>
       <c r="D25" s="101">
@@ -3810,14 +3913,14 @@
       </c>
       <c r="P25" s="37"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5">
+    <row r="26" spans="1:16" ht="17">
       <c r="A26" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="117">
+      <c r="B26" s="116">
         <v>271009</v>
       </c>
-      <c r="C26" s="117">
+      <c r="C26" s="116">
         <v>33776</v>
       </c>
       <c r="D26" s="101">
@@ -3848,7 +3951,7 @@
         <v>1226</v>
       </c>
       <c r="L26" s="111"/>
-      <c r="M26" s="120"/>
+      <c r="M26" s="119"/>
       <c r="N26" s="101">
         <f t="shared" si="3"/>
         <v>2657</v>
@@ -3859,14 +3962,14 @@
       </c>
       <c r="P26" s="37"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5">
+    <row r="27" spans="1:16" ht="17">
       <c r="A27" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="117">
+      <c r="B27" s="116">
         <v>129423</v>
       </c>
-      <c r="C27" s="117">
+      <c r="C27" s="116">
         <v>14485</v>
       </c>
       <c r="D27" s="101">
@@ -3890,14 +3993,14 @@
         <f t="shared" si="5"/>
         <v>0.66326530612244894</v>
       </c>
-      <c r="J27" s="121">
-        <v>0</v>
-      </c>
-      <c r="K27" s="121">
+      <c r="J27" s="120">
+        <v>0</v>
+      </c>
+      <c r="K27" s="120">
         <v>0</v>
       </c>
       <c r="L27" s="115"/>
-      <c r="M27" s="120"/>
+      <c r="M27" s="119"/>
       <c r="N27" s="101">
         <f t="shared" si="3"/>
         <v>294</v>
@@ -3908,14 +4011,14 @@
       </c>
       <c r="P27" s="37"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5">
+    <row r="28" spans="1:16" ht="17">
       <c r="A28" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="122">
+      <c r="B28" s="121">
         <v>12485</v>
       </c>
-      <c r="C28" s="122">
+      <c r="C28" s="121">
         <v>1201</v>
       </c>
       <c r="D28" s="101">
@@ -3939,14 +4042,14 @@
         <f t="shared" si="5"/>
         <v>0.52941176470588236</v>
       </c>
-      <c r="J28" s="121">
+      <c r="J28" s="120">
         <v>1</v>
       </c>
-      <c r="K28" s="121">
+      <c r="K28" s="120">
         <v>5</v>
       </c>
       <c r="L28" s="115"/>
-      <c r="M28" s="123"/>
+      <c r="M28" s="122"/>
       <c r="N28" s="101">
         <f>G28+K28+M28</f>
         <v>39</v>
@@ -3958,44 +4061,47 @@
       <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:16" ht="42" customHeight="1">
-      <c r="A29" s="127" t="s">
+      <c r="A29" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
       <c r="P29" s="26"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5">
-      <c r="A30" s="127" t="s">
+    <row r="30" spans="1:16" ht="17">
+      <c r="A30" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
       <c r="P30" s="27"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="I31" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4017,6 +4123,11 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -4030,24 +4141,24 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.5"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="29" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" style="29" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4056,87 +4167,87 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="25.5">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:14" ht="25">
+      <c r="A2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="134" t="s">
+      <c r="E3" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="130" t="s">
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="134"/>
-      <c r="K3" s="130" t="s">
+      <c r="J3" s="133"/>
+      <c r="K3" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="134"/>
-      <c r="M3" s="138" t="s">
+      <c r="L3" s="133"/>
+      <c r="M3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="126" t="s">
+      <c r="N3" s="125" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="A4" s="126"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="134" t="str">
+      <c r="A4" s="125"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="133" t="str">
         <f>A1</f>
         <v>(104.4.30)</v>
       </c>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="134" t="s">
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="137"/>
-      <c r="K4" s="134" t="str">
+      <c r="J4" s="136"/>
+      <c r="K4" s="133" t="str">
         <f>A1</f>
         <v>(104.4.30)</v>
       </c>
-      <c r="L4" s="137"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="126"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="125"/>
     </row>
     <row r="5" spans="1:14" ht="21" customHeight="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="48" t="s">
         <v>10</v>
       </c>
@@ -4161,10 +4272,10 @@
       <c r="L5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="135"/>
-      <c r="N5" s="126"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5">
+      <c r="M5" s="134"/>
+      <c r="N5" s="125"/>
+    </row>
+    <row r="6" spans="1:14" ht="17">
       <c r="A6" s="39" t="s">
         <v>15</v>
       </c>
@@ -4221,7 +4332,7 @@
         <v>359.9943896251437</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5">
+    <row r="7" spans="1:14" ht="17">
       <c r="A7" s="38" t="s">
         <v>37</v>
       </c>
@@ -4269,7 +4380,7 @@
         <v>424.65986394557819</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5">
+    <row r="8" spans="1:14" ht="17">
       <c r="A8" s="38" t="s">
         <v>38</v>
       </c>
@@ -4313,7 +4424,7 @@
         <v>179.81920099836526</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5">
+    <row r="9" spans="1:14" ht="17">
       <c r="A9" s="38" t="s">
         <v>83</v>
       </c>
@@ -4361,7 +4472,7 @@
         <v>517.61018169194563</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5">
+    <row r="10" spans="1:14" ht="17">
       <c r="A10" s="38" t="s">
         <v>39</v>
       </c>
@@ -4405,7 +4516,7 @@
         <v>317.52559150523581</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5">
+    <row r="11" spans="1:14" ht="17">
       <c r="A11" s="38" t="s">
         <v>40</v>
       </c>
@@ -4453,7 +4564,7 @@
         <v>441.54994054943097</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5">
+    <row r="12" spans="1:14" ht="17">
       <c r="A12" s="38" t="s">
         <v>41</v>
       </c>
@@ -4501,7 +4612,7 @@
         <v>270.27983786749741</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5">
+    <row r="13" spans="1:14" ht="17">
       <c r="A13" s="56" t="s">
         <v>42</v>
       </c>
@@ -4545,7 +4656,7 @@
         <v>773.24241858148082</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5">
+    <row r="14" spans="1:14" ht="17">
       <c r="A14" s="56" t="s">
         <v>17</v>
       </c>
@@ -4589,7 +4700,7 @@
         <v>350.63550635506357</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5">
+    <row r="15" spans="1:14" ht="17">
       <c r="A15" s="56" t="s">
         <v>18</v>
       </c>
@@ -4633,7 +4744,7 @@
         <v>219.35678847558364</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5">
+    <row r="16" spans="1:14" ht="17">
       <c r="A16" s="56" t="s">
         <v>19</v>
       </c>
@@ -4681,7 +4792,7 @@
         <v>410.18338427340927</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5">
+    <row r="17" spans="1:14" ht="17">
       <c r="A17" s="56" t="s">
         <v>20</v>
       </c>
@@ -4725,7 +4836,7 @@
         <v>351.40049975797064</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5">
+    <row r="18" spans="1:14" ht="17">
       <c r="A18" s="56" t="s">
         <v>21</v>
       </c>
@@ -4773,7 +4884,7 @@
         <v>266.52805926340068</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.5">
+    <row r="19" spans="1:14" ht="17">
       <c r="A19" s="56" t="s">
         <v>22</v>
       </c>
@@ -4817,7 +4928,7 @@
         <v>255.34735328480275</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.5">
+    <row r="20" spans="1:14" ht="17">
       <c r="A20" s="56" t="s">
         <v>23</v>
       </c>
@@ -4865,7 +4976,7 @@
         <v>451.88053559928738</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5">
+    <row r="21" spans="1:14" ht="17">
       <c r="A21" s="56" t="s">
         <v>43</v>
       </c>
@@ -4913,7 +5024,7 @@
         <v>469.25719328101854</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5">
+    <row r="22" spans="1:14" ht="17">
       <c r="A22" s="56" t="s">
         <v>24</v>
       </c>
@@ -4961,7 +5072,7 @@
         <v>425.81039221674445</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5">
+    <row r="23" spans="1:14" ht="17">
       <c r="A23" s="56" t="s">
         <v>25</v>
       </c>
@@ -5005,7 +5116,7 @@
         <v>198.42073294189109</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.5">
+    <row r="24" spans="1:14" ht="17">
       <c r="A24" s="56" t="s">
         <v>26</v>
       </c>
@@ -5049,7 +5160,7 @@
         <v>501.55887091711827</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.5">
+    <row r="25" spans="1:14" ht="17">
       <c r="A25" s="56" t="s">
         <v>27</v>
       </c>
@@ -5097,7 +5208,7 @@
         <v>313.63196616194568</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.5">
+    <row r="26" spans="1:14" ht="17">
       <c r="A26" s="56" t="s">
         <v>28</v>
       </c>
@@ -5141,7 +5252,7 @@
         <v>786.6532449076268</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.5">
+    <row r="27" spans="1:14" ht="17">
       <c r="A27" s="56" t="s">
         <v>4</v>
       </c>
@@ -5185,7 +5296,7 @@
         <v>202.96858819468414</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17.25" thickBot="1">
+    <row r="28" spans="1:14" ht="17.5" thickBot="1">
       <c r="A28" s="56" t="s">
         <v>44</v>
       </c>
@@ -5257,59 +5368,59 @@
   <dimension ref="A1:AW33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.5"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" customWidth="1"/>
-    <col min="9" max="9" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" customWidth="1"/>
     <col min="10" max="10" width="6.33203125" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
     <col min="12" max="12" width="6.33203125" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="4.77734375" customWidth="1"/>
     <col min="16" max="16" width="5" customWidth="1"/>
-    <col min="17" max="17" width="5.1640625" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" customWidth="1"/>
     <col min="18" max="18" width="5" customWidth="1"/>
     <col min="19" max="19" width="4.6640625" customWidth="1"/>
     <col min="20" max="20" width="5.33203125" customWidth="1"/>
     <col min="21" max="22" width="4.6640625" customWidth="1"/>
     <col min="23" max="23" width="5.6640625" customWidth="1"/>
-    <col min="24" max="24" width="6.5" customWidth="1"/>
-    <col min="25" max="26" width="5.1640625" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" customWidth="1"/>
+    <col min="25" max="26" width="5.109375" customWidth="1"/>
     <col min="27" max="27" width="5.6640625" customWidth="1"/>
     <col min="28" max="28" width="6" customWidth="1"/>
     <col min="29" max="30" width="5" customWidth="1"/>
     <col min="31" max="31" width="6.33203125" customWidth="1"/>
     <col min="32" max="35" width="5" customWidth="1"/>
-    <col min="36" max="36" width="4.83203125" customWidth="1"/>
-    <col min="37" max="37" width="4.5" customWidth="1"/>
+    <col min="36" max="36" width="4.77734375" customWidth="1"/>
+    <col min="37" max="37" width="4.44140625" customWidth="1"/>
     <col min="38" max="38" width="5" customWidth="1"/>
-    <col min="39" max="39" width="4.5" customWidth="1"/>
+    <col min="39" max="39" width="4.44140625" customWidth="1"/>
     <col min="40" max="41" width="4.6640625" customWidth="1"/>
-    <col min="42" max="42" width="4.83203125" customWidth="1"/>
-    <col min="43" max="43" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.1640625" customWidth="1"/>
-    <col min="45" max="45" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.77734375" customWidth="1"/>
+    <col min="43" max="43" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.109375" customWidth="1"/>
+    <col min="45" max="45" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="5.33203125" customWidth="1"/>
-    <col min="47" max="47" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.1640625" customWidth="1"/>
+    <col min="47" max="47" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="4" customFormat="1" ht="33" hidden="1" thickBot="1">
+    <row r="1" spans="1:49" s="4" customFormat="1" ht="34" hidden="1" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -5334,314 +5445,314 @@
       <c r="AV1" s="5"/>
     </row>
     <row r="2" spans="1:49" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="139" t="str">
+      <c r="A2" s="146" t="str">
         <f>E1</f>
         <v>老人福利機構概況表</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="141"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="148"/>
     </row>
     <row r="3" spans="1:49" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="142" t="str">
+      <c r="A3" s="149" t="str">
         <f>G1</f>
         <v>中華民國104年 4月</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143"/>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="143"/>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="143"/>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="143"/>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143"/>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143"/>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="144"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
+      <c r="AL3" s="150"/>
+      <c r="AM3" s="150"/>
+      <c r="AN3" s="150"/>
+      <c r="AO3" s="150"/>
+      <c r="AP3" s="150"/>
+      <c r="AQ3" s="150"/>
+      <c r="AR3" s="150"/>
+      <c r="AS3" s="150"/>
+      <c r="AT3" s="150"/>
+      <c r="AU3" s="150"/>
+      <c r="AV3" s="151"/>
     </row>
     <row r="4" spans="1:49" s="16" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149" t="s">
+      <c r="B4" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149" t="s">
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="W4" s="151"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="149" t="s">
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="157"/>
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="AF4" s="149"/>
-      <c r="AG4" s="149"/>
-      <c r="AH4" s="149"/>
-      <c r="AI4" s="149"/>
-      <c r="AJ4" s="149"/>
-      <c r="AK4" s="149"/>
-      <c r="AL4" s="149"/>
-      <c r="AM4" s="149"/>
-      <c r="AN4" s="149" t="s">
+      <c r="AF4" s="155"/>
+      <c r="AG4" s="155"/>
+      <c r="AH4" s="155"/>
+      <c r="AI4" s="155"/>
+      <c r="AJ4" s="155"/>
+      <c r="AK4" s="155"/>
+      <c r="AL4" s="155"/>
+      <c r="AM4" s="155"/>
+      <c r="AN4" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="149"/>
-      <c r="AP4" s="149"/>
-      <c r="AQ4" s="151"/>
-      <c r="AR4" s="151"/>
-      <c r="AS4" s="151"/>
-      <c r="AT4" s="151"/>
-      <c r="AU4" s="151"/>
-      <c r="AV4" s="152"/>
+      <c r="AO4" s="155"/>
+      <c r="AP4" s="155"/>
+      <c r="AQ4" s="157"/>
+      <c r="AR4" s="157"/>
+      <c r="AS4" s="157"/>
+      <c r="AT4" s="157"/>
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="158"/>
       <c r="AW4" s="15"/>
     </row>
     <row r="5" spans="1:49" s="16" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A5" s="147"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="150"/>
-      <c r="W5" s="150"/>
-      <c r="X5" s="150"/>
-      <c r="Y5" s="150"/>
-      <c r="Z5" s="150"/>
-      <c r="AA5" s="150"/>
-      <c r="AB5" s="150"/>
-      <c r="AC5" s="150"/>
-      <c r="AD5" s="150"/>
-      <c r="AE5" s="150"/>
-      <c r="AF5" s="150"/>
-      <c r="AG5" s="150"/>
-      <c r="AH5" s="150"/>
-      <c r="AI5" s="150"/>
-      <c r="AJ5" s="150"/>
-      <c r="AK5" s="150"/>
-      <c r="AL5" s="150"/>
-      <c r="AM5" s="150"/>
-      <c r="AN5" s="150"/>
-      <c r="AO5" s="150"/>
-      <c r="AP5" s="150"/>
-      <c r="AQ5" s="150"/>
-      <c r="AR5" s="150"/>
-      <c r="AS5" s="150"/>
-      <c r="AT5" s="150"/>
-      <c r="AU5" s="150"/>
-      <c r="AV5" s="153"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
+      <c r="X5" s="156"/>
+      <c r="Y5" s="156"/>
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="156"/>
+      <c r="AB5" s="156"/>
+      <c r="AC5" s="156"/>
+      <c r="AD5" s="156"/>
+      <c r="AE5" s="156"/>
+      <c r="AF5" s="156"/>
+      <c r="AG5" s="156"/>
+      <c r="AH5" s="156"/>
+      <c r="AI5" s="156"/>
+      <c r="AJ5" s="156"/>
+      <c r="AK5" s="156"/>
+      <c r="AL5" s="156"/>
+      <c r="AM5" s="156"/>
+      <c r="AN5" s="156"/>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="156"/>
+      <c r="AQ5" s="156"/>
+      <c r="AR5" s="156"/>
+      <c r="AS5" s="156"/>
+      <c r="AT5" s="156"/>
+      <c r="AU5" s="156"/>
+      <c r="AV5" s="159"/>
       <c r="AW5" s="15"/>
     </row>
     <row r="6" spans="1:49" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="147"/>
-      <c r="B6" s="162" t="s">
+      <c r="A6" s="153"/>
+      <c r="B6" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145" t="s">
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="145" t="s">
+      <c r="I6" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145" t="s">
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="145" t="s">
+      <c r="N6" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="145"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="145" t="s">
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="145"/>
-      <c r="T6" s="145"/>
-      <c r="U6" s="145"/>
-      <c r="V6" s="145" t="s">
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="145" t="s">
+      <c r="W6" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="145"/>
-      <c r="Z6" s="145"/>
-      <c r="AA6" s="145" t="s">
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="145"/>
-      <c r="AC6" s="145"/>
-      <c r="AD6" s="145"/>
-      <c r="AE6" s="145" t="s">
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="AF6" s="145" t="s">
+      <c r="AF6" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="AG6" s="145"/>
-      <c r="AH6" s="145"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="145" t="s">
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="AK6" s="145"/>
-      <c r="AL6" s="145"/>
-      <c r="AM6" s="145"/>
-      <c r="AN6" s="145" t="s">
+      <c r="AK6" s="143"/>
+      <c r="AL6" s="143"/>
+      <c r="AM6" s="143"/>
+      <c r="AN6" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="AO6" s="145" t="s">
+      <c r="AO6" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="AP6" s="154"/>
-      <c r="AQ6" s="154"/>
-      <c r="AR6" s="154"/>
-      <c r="AS6" s="145" t="s">
+      <c r="AP6" s="160"/>
+      <c r="AQ6" s="160"/>
+      <c r="AR6" s="160"/>
+      <c r="AS6" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="AT6" s="154"/>
-      <c r="AU6" s="154"/>
-      <c r="AV6" s="155"/>
+      <c r="AT6" s="160"/>
+      <c r="AU6" s="160"/>
+      <c r="AV6" s="161"/>
       <c r="AW6" s="15"/>
     </row>
-    <row r="7" spans="1:49" s="16" customFormat="1" ht="57.75" thickBot="1">
-      <c r="A7" s="148"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="156"/>
+    <row r="7" spans="1:49" s="16" customFormat="1" ht="54.5" thickBot="1">
+      <c r="A7" s="154"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="18" t="s">
         <v>58</v>
       </c>
@@ -5654,7 +5765,7 @@
       <c r="G7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="156"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="18" t="s">
         <v>61</v>
       </c>
@@ -5667,7 +5778,7 @@
       <c r="L7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="164"/>
+      <c r="M7" s="144"/>
       <c r="N7" s="18" t="s">
         <v>58</v>
       </c>
@@ -5692,7 +5803,7 @@
       <c r="U7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="156"/>
+      <c r="V7" s="145"/>
       <c r="W7" s="18" t="s">
         <v>58</v>
       </c>
@@ -5717,7 +5828,7 @@
       <c r="AD7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AE7" s="164"/>
+      <c r="AE7" s="144"/>
       <c r="AF7" s="18" t="s">
         <v>58</v>
       </c>
@@ -5742,7 +5853,7 @@
       <c r="AM7" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AN7" s="164"/>
+      <c r="AN7" s="144"/>
       <c r="AO7" s="18" t="s">
         <v>58</v>
       </c>
@@ -9198,169 +9309,157 @@
       </c>
     </row>
     <row r="31" spans="1:48" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A31" s="161"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="161"/>
-      <c r="S31" s="161"/>
-      <c r="T31" s="161"/>
-      <c r="U31" s="161"/>
-      <c r="V31" s="161"/>
-      <c r="W31" s="161"/>
-      <c r="X31" s="161"/>
-      <c r="Y31" s="161"/>
-      <c r="Z31" s="161"/>
-      <c r="AA31" s="161"/>
-      <c r="AB31" s="161"/>
-      <c r="AC31" s="161"/>
-      <c r="AD31" s="161"/>
-      <c r="AE31" s="161"/>
-      <c r="AF31" s="161"/>
-      <c r="AG31" s="161"/>
-      <c r="AH31" s="161"/>
-      <c r="AI31" s="161"/>
-      <c r="AJ31" s="161"/>
-      <c r="AK31" s="161"/>
-      <c r="AL31" s="161"/>
-      <c r="AM31" s="161"/>
-      <c r="AN31" s="161"/>
-      <c r="AO31" s="161"/>
-      <c r="AP31" s="161"/>
-      <c r="AQ31" s="161"/>
-      <c r="AR31" s="161"/>
-      <c r="AS31" s="161"/>
-      <c r="AT31" s="161"/>
-      <c r="AU31" s="161"/>
-      <c r="AV31" s="161"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="140"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="140"/>
+      <c r="S31" s="140"/>
+      <c r="T31" s="140"/>
+      <c r="U31" s="140"/>
+      <c r="V31" s="140"/>
+      <c r="W31" s="140"/>
+      <c r="X31" s="140"/>
+      <c r="Y31" s="140"/>
+      <c r="Z31" s="140"/>
+      <c r="AA31" s="140"/>
+      <c r="AB31" s="140"/>
+      <c r="AC31" s="140"/>
+      <c r="AD31" s="140"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="140"/>
+      <c r="AG31" s="140"/>
+      <c r="AH31" s="140"/>
+      <c r="AI31" s="140"/>
+      <c r="AJ31" s="140"/>
+      <c r="AK31" s="140"/>
+      <c r="AL31" s="140"/>
+      <c r="AM31" s="140"/>
+      <c r="AN31" s="140"/>
+      <c r="AO31" s="140"/>
+      <c r="AP31" s="140"/>
+      <c r="AQ31" s="140"/>
+      <c r="AR31" s="140"/>
+      <c r="AS31" s="140"/>
+      <c r="AT31" s="140"/>
+      <c r="AU31" s="140"/>
+      <c r="AV31" s="140"/>
     </row>
     <row r="32" spans="1:48" ht="18" customHeight="1">
-      <c r="A32" s="160"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="160"/>
-      <c r="S32" s="160"/>
-      <c r="T32" s="160"/>
-      <c r="U32" s="160"/>
-      <c r="V32" s="160"/>
-      <c r="W32" s="160"/>
-      <c r="X32" s="160"/>
-      <c r="Y32" s="160"/>
-      <c r="Z32" s="160"/>
-      <c r="AA32" s="160"/>
-      <c r="AB32" s="160"/>
-      <c r="AC32" s="160"/>
-      <c r="AD32" s="160"/>
-      <c r="AE32" s="160"/>
-      <c r="AF32" s="160"/>
-      <c r="AG32" s="160"/>
-      <c r="AH32" s="160"/>
-      <c r="AI32" s="160"/>
-      <c r="AJ32" s="160"/>
-      <c r="AK32" s="160"/>
-      <c r="AL32" s="160"/>
-      <c r="AM32" s="160"/>
-      <c r="AN32" s="160"/>
-      <c r="AO32" s="160"/>
-      <c r="AP32" s="160"/>
-      <c r="AQ32" s="160"/>
-      <c r="AR32" s="160"/>
-      <c r="AS32" s="160"/>
-      <c r="AT32" s="160"/>
-      <c r="AU32" s="160"/>
-      <c r="AV32" s="160"/>
+      <c r="A32" s="139"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="139"/>
+      <c r="P32" s="139"/>
+      <c r="Q32" s="139"/>
+      <c r="R32" s="139"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="139"/>
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="139"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="139"/>
+      <c r="AH32" s="139"/>
+      <c r="AI32" s="139"/>
+      <c r="AJ32" s="139"/>
+      <c r="AK32" s="139"/>
+      <c r="AL32" s="139"/>
+      <c r="AM32" s="139"/>
+      <c r="AN32" s="139"/>
+      <c r="AO32" s="139"/>
+      <c r="AP32" s="139"/>
+      <c r="AQ32" s="139"/>
+      <c r="AR32" s="139"/>
+      <c r="AS32" s="139"/>
+      <c r="AT32" s="139"/>
+      <c r="AU32" s="139"/>
+      <c r="AV32" s="139"/>
     </row>
     <row r="33" spans="1:48" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="159"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="159"/>
-      <c r="O33" s="159"/>
-      <c r="P33" s="159"/>
-      <c r="Q33" s="159"/>
-      <c r="R33" s="159"/>
-      <c r="S33" s="159"/>
-      <c r="T33" s="159"/>
-      <c r="U33" s="159"/>
-      <c r="V33" s="159"/>
-      <c r="W33" s="159"/>
-      <c r="X33" s="159"/>
-      <c r="Y33" s="159"/>
-      <c r="Z33" s="159"/>
-      <c r="AA33" s="159"/>
-      <c r="AB33" s="159"/>
-      <c r="AC33" s="159"/>
-      <c r="AD33" s="159"/>
-      <c r="AE33" s="159"/>
-      <c r="AF33" s="159"/>
-      <c r="AG33" s="159"/>
-      <c r="AH33" s="159"/>
-      <c r="AI33" s="159"/>
-      <c r="AJ33" s="159"/>
-      <c r="AK33" s="159"/>
-      <c r="AL33" s="159"/>
-      <c r="AM33" s="159"/>
-      <c r="AN33" s="159"/>
-      <c r="AO33" s="159"/>
-      <c r="AP33" s="159"/>
-      <c r="AQ33" s="159"/>
-      <c r="AR33" s="159"/>
-      <c r="AS33" s="159"/>
-      <c r="AT33" s="159"/>
-      <c r="AU33" s="159"/>
-      <c r="AV33" s="159"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="138"/>
+      <c r="Q33" s="138"/>
+      <c r="R33" s="138"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="138"/>
+      <c r="W33" s="138"/>
+      <c r="X33" s="138"/>
+      <c r="Y33" s="138"/>
+      <c r="Z33" s="138"/>
+      <c r="AA33" s="138"/>
+      <c r="AB33" s="138"/>
+      <c r="AC33" s="138"/>
+      <c r="AD33" s="138"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="138"/>
+      <c r="AG33" s="138"/>
+      <c r="AH33" s="138"/>
+      <c r="AI33" s="138"/>
+      <c r="AJ33" s="138"/>
+      <c r="AK33" s="138"/>
+      <c r="AL33" s="138"/>
+      <c r="AM33" s="138"/>
+      <c r="AN33" s="138"/>
+      <c r="AO33" s="138"/>
+      <c r="AP33" s="138"/>
+      <c r="AQ33" s="138"/>
+      <c r="AR33" s="138"/>
+      <c r="AS33" s="138"/>
+      <c r="AT33" s="138"/>
+      <c r="AU33" s="138"/>
+      <c r="AV33" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A33:AV33"/>
-    <mergeCell ref="A32:AV32"/>
-    <mergeCell ref="A31:AV31"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="V6:V7"/>
     <mergeCell ref="A2:AV2"/>
     <mergeCell ref="A3:AV3"/>
     <mergeCell ref="I6:L6"/>
@@ -9377,6 +9476,18 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="V4:AD5"/>
     <mergeCell ref="B4:L5"/>
+    <mergeCell ref="A33:AV33"/>
+    <mergeCell ref="A32:AV32"/>
+    <mergeCell ref="A31:AV31"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="V6:V7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -9397,55 +9508,55 @@
       <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="45" customWidth="1"/>
     <col min="2" max="10" width="12.33203125" style="45" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="45" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="45"/>
-    <col min="14" max="14" width="10.1640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="45"/>
+    <col min="12" max="13" width="9.109375" style="45"/>
+    <col min="14" max="14" width="10.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21.75" thickBot="1">
-      <c r="A1" s="165" t="s">
+    <row r="1" spans="1:16" ht="22" thickBot="1">
+      <c r="A1" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
       <c r="K1" s="81">
         <v>104.4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="35.450000000000003" customHeight="1" thickTop="1">
-      <c r="A2" s="171" t="s">
+    <row r="2" spans="1:16" ht="35.5" customHeight="1" thickTop="1">
+      <c r="A2" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="173" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="F2" s="173" t="s">
+      <c r="E2" s="173"/>
+      <c r="F2" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="173"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="177" t="s">
+      <c r="G2" s="172"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="180" t="s">
+      <c r="K2" s="179" t="s">
         <v>77</v>
       </c>
       <c r="M2" s="68"/>
@@ -9453,29 +9564,29 @@
       <c r="O2" s="68"/>
       <c r="P2" s="68"/>
     </row>
-    <row r="3" spans="1:16" ht="23.45" customHeight="1">
-      <c r="A3" s="172"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="182" t="s">
+    <row r="3" spans="1:16" ht="23.5" customHeight="1">
+      <c r="A3" s="171"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="181" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="175"/>
-      <c r="H3" s="182" t="s">
+      <c r="G3" s="174"/>
+      <c r="H3" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="175"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="181"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="180"/>
       <c r="M3" s="69"/>
       <c r="N3" s="69"/>
       <c r="O3" s="68"/>
       <c r="P3" s="68"/>
     </row>
     <row r="4" spans="1:16" ht="22.15" customHeight="1">
-      <c r="A4" s="172"/>
+      <c r="A4" s="171"/>
       <c r="B4" s="82" t="s">
         <v>79</v>
       </c>
@@ -9500,8 +9611,8 @@
       <c r="I4" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="179"/>
-      <c r="K4" s="181"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="180"/>
       <c r="M4" s="67"/>
       <c r="N4" s="67"/>
       <c r="O4" s="67"/>
@@ -10439,22 +10550,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="35.450000000000003" customHeight="1" thickBot="1">
-      <c r="A29" s="167" t="s">
+    <row r="29" spans="1:16" ht="35.5" customHeight="1" thickBot="1">
+      <c r="A29" s="166" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="170"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" thickTop="1"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="169"/>
+    </row>
+    <row r="30" spans="1:16" ht="14" thickTop="1"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
@@ -10482,7 +10593,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.5"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
